--- a/CodeSystem-Example-sections-PL.xlsx
+++ b/CodeSystem-Example-sections-PL.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-03T14:10:29+00:00</t>
+    <t>2021-09-06T06:59:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Example-sections-PL.xlsx
+++ b/CodeSystem-Example-sections-PL.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-06T06:59:46+00:00</t>
+    <t>2021-09-06T15:55:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Example-sections-PL.xlsx
+++ b/CodeSystem-Example-sections-PL.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-06T15:55:54+00:00</t>
+    <t>2021-09-06T23:28:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Example-sections-PL.xlsx
+++ b/CodeSystem-Example-sections-PL.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-06T23:28:02+00:00</t>
+    <t>2021-09-07T03:22:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Example-sections-PL.xlsx
+++ b/CodeSystem-Example-sections-PL.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T03:22:10+00:00</t>
+    <t>2021-09-10T03:00:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Example-sections-PL.xlsx
+++ b/CodeSystem-Example-sections-PL.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-10T03:00:07+00:00</t>
+    <t>2021-09-10T03:02:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Example-sections-PL.xlsx
+++ b/CodeSystem-Example-sections-PL.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-10T03:02:24+00:00</t>
+    <t>2021-09-11T17:39:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Example-sections-PL.xlsx
+++ b/CodeSystem-Example-sections-PL.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-11T17:39:26+00:00</t>
+    <t>2021-09-11T18:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Example-sections-PL.xlsx
+++ b/CodeSystem-Example-sections-PL.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-11T18:22:16+00:00</t>
+    <t>2021-09-11T18:39:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Example-sections-PL.xlsx
+++ b/CodeSystem-Example-sections-PL.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-11T18:39:42+00:00</t>
+    <t>2021-09-11T19:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Example-sections-PL.xlsx
+++ b/CodeSystem-Example-sections-PL.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-11T19:25:22+00:00</t>
+    <t>2021-09-11T21:15:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Example-sections-PL.xlsx
+++ b/CodeSystem-Example-sections-PL.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-11T21:15:44+00:00</t>
+    <t>2021-09-13T15:53:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Example-sections-PL.xlsx
+++ b/CodeSystem-Example-sections-PL.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T15:53:30+00:00</t>
+    <t>2021-09-13T20:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
